--- a/TODO/graphs.xlsx
+++ b/TODO/graphs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" firstSheet="3" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" firstSheet="3" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -620,11 +620,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-539261424"/>
-        <c:axId val="-539259376"/>
+        <c:axId val="-1459869472"/>
+        <c:axId val="-1459867152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-539261424"/>
+        <c:axId val="-1459869472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -667,7 +667,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-539259376"/>
+        <c:crossAx val="-1459867152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -675,7 +675,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-539259376"/>
+        <c:axId val="-1459867152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -726,7 +726,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-539261424"/>
+        <c:crossAx val="-1459869472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1092,11 +1092,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-539059760"/>
-        <c:axId val="-539056496"/>
+        <c:axId val="-1361542464"/>
+        <c:axId val="-1361539200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-539059760"/>
+        <c:axId val="-1361542464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1106,7 +1106,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-539056496"/>
+        <c:crossAx val="-1361539200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1114,7 +1114,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-539056496"/>
+        <c:axId val="-1361539200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -1170,7 +1170,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-539059760"/>
+        <c:crossAx val="-1361542464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1463,11 +1463,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-539025472"/>
-        <c:axId val="-539022208"/>
+        <c:axId val="-1361507696"/>
+        <c:axId val="-1361504432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-539025472"/>
+        <c:axId val="-1361507696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1509,7 +1509,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-539022208"/>
+        <c:crossAx val="-1361504432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1517,7 +1517,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-539022208"/>
+        <c:axId val="-1361504432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1567,7 +1567,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-539025472"/>
+        <c:crossAx val="-1361507696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1860,11 +1860,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-540256016"/>
-        <c:axId val="-540252752"/>
+        <c:axId val="-1361474592"/>
+        <c:axId val="-1361471328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-540256016"/>
+        <c:axId val="-1361474592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1906,7 +1906,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-540252752"/>
+        <c:crossAx val="-1361471328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1914,7 +1914,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-540252752"/>
+        <c:axId val="-1361471328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1964,7 +1964,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-540256016"/>
+        <c:crossAx val="-1361474592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2426,11 +2426,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-536937072"/>
-        <c:axId val="-536934752"/>
+        <c:axId val="-1361438080"/>
+        <c:axId val="-1361435328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-536937072"/>
+        <c:axId val="-1361438080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2473,7 +2473,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-536934752"/>
+        <c:crossAx val="-1361435328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2481,7 +2481,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-536934752"/>
+        <c:axId val="-1361435328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2531,7 +2531,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-536937072"/>
+        <c:crossAx val="-1361438080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3024,11 +3024,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-536898928"/>
-        <c:axId val="-536896176"/>
+        <c:axId val="-1361408288"/>
+        <c:axId val="-1361405536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-536898928"/>
+        <c:axId val="-1361408288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3071,7 +3071,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-536896176"/>
+        <c:crossAx val="-1361405536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3079,7 +3079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-536896176"/>
+        <c:axId val="-1361405536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3130,7 +3130,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-536898928"/>
+        <c:crossAx val="-1361408288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3623,11 +3623,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-538108368"/>
-        <c:axId val="-538105616"/>
+        <c:axId val="-1361379296"/>
+        <c:axId val="-1361376544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-538108368"/>
+        <c:axId val="-1361379296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3670,7 +3670,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-538105616"/>
+        <c:crossAx val="-1361376544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3678,7 +3678,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-538105616"/>
+        <c:axId val="-1361376544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3729,7 +3729,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-538108368"/>
+        <c:crossAx val="-1361379296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3850,7 +3850,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4043,25 +4042,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.406</c:v>
+                  <c:v>0.438</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.377</c:v>
+                  <c:v>0.417</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.391</c:v>
+                  <c:v>0.437</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.346</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.434</c:v>
+                  <c:v>0.447</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.429</c:v>
+                  <c:v>0.506</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.428</c:v>
+                  <c:v>0.489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4162,11 +4161,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-538062512"/>
-        <c:axId val="-538059760"/>
+        <c:axId val="-1461282720"/>
+        <c:axId val="-1461280400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-538062512"/>
+        <c:axId val="-1461282720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4209,7 +4208,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-538059760"/>
+        <c:crossAx val="-1461280400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4217,7 +4216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-538059760"/>
+        <c:axId val="-1461280400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.6"/>
@@ -4269,7 +4268,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-538062512"/>
+        <c:crossAx val="-1461282720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4283,7 +4282,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4391,7 +4389,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4584,25 +4581,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.163</c:v>
+                  <c:v>0.442</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.147</c:v>
+                  <c:v>0.454</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.276</c:v>
+                  <c:v>0.611</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.739</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.633</c:v>
+                  <c:v>2.68</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.955</c:v>
+                  <c:v>5.678</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.554</c:v>
+                  <c:v>8.705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4703,11 +4700,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-538028640"/>
-        <c:axId val="-538025888"/>
+        <c:axId val="-1461245760"/>
+        <c:axId val="-1461243008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-538028640"/>
+        <c:axId val="-1461245760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4750,7 +4747,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-538025888"/>
+        <c:crossAx val="-1461243008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4758,7 +4755,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-538025888"/>
+        <c:axId val="-1461243008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4809,7 +4806,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-538028640"/>
+        <c:crossAx val="-1461245760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4823,7 +4820,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5123,16 +5119,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.429</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.425</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.422</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42</c:v>
+                  <c:v>0.441</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.468</c:v>
+                  <c:v>0.471</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.481</c:v>
@@ -5242,11 +5238,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-537991088"/>
-        <c:axId val="-537988336"/>
+        <c:axId val="-1461203168"/>
+        <c:axId val="-1461200416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-537991088"/>
+        <c:axId val="-1461203168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5289,7 +5285,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-537988336"/>
+        <c:crossAx val="-1461200416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5297,7 +5293,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-537988336"/>
+        <c:axId val="-1461200416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5348,7 +5344,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-537991088"/>
+        <c:crossAx val="-1461203168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5665,25 +5661,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.161</c:v>
+                  <c:v>0.451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.175</c:v>
+                  <c:v>0.485</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.348</c:v>
+                  <c:v>0.664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.861</c:v>
+                  <c:v>1.142</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.473</c:v>
+                  <c:v>2.83</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.286</c:v>
+                  <c:v>5.89</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.308</c:v>
+                  <c:v>8.815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5784,11 +5780,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-537955152"/>
-        <c:axId val="-537952400"/>
+        <c:axId val="-1461169248"/>
+        <c:axId val="-1461166496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-537955152"/>
+        <c:axId val="-1461169248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5831,7 +5827,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-537952400"/>
+        <c:crossAx val="-1461166496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5839,7 +5835,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-537952400"/>
+        <c:axId val="-1461166496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5890,7 +5886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-537955152"/>
+        <c:crossAx val="-1461169248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6184,11 +6180,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="-536958080"/>
-        <c:axId val="-536956032"/>
+        <c:axId val="-1361796928"/>
+        <c:axId val="-1361795152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-536958080"/>
+        <c:axId val="-1361796928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6231,7 +6227,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-536956032"/>
+        <c:crossAx val="-1361795152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6239,7 +6235,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-536956032"/>
+        <c:axId val="-1361795152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6290,7 +6286,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-536958080"/>
+        <c:crossAx val="-1361796928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6572,25 +6568,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.382</c:v>
+                  <c:v>0.427</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.393</c:v>
+                  <c:v>0.399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.408</c:v>
+                  <c:v>0.469</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.432</c:v>
+                  <c:v>0.488</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.43</c:v>
+                  <c:v>0.519</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.425</c:v>
+                  <c:v>0.523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6691,11 +6687,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-428850560"/>
-        <c:axId val="-428847808"/>
+        <c:axId val="-1461130960"/>
+        <c:axId val="-1461128208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-428850560"/>
+        <c:axId val="-1461130960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6738,7 +6734,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-428847808"/>
+        <c:crossAx val="-1461128208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6746,7 +6742,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-428847808"/>
+        <c:axId val="-1461128208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6796,7 +6792,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-428850560"/>
+        <c:crossAx val="-1461130960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7109,25 +7105,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.139</c:v>
+                  <c:v>0.388</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35</c:v>
+                  <c:v>0.606</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.828</c:v>
+                  <c:v>1.354</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.746</c:v>
+                  <c:v>2.983</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.592</c:v>
+                  <c:v>5.529</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.68</c:v>
+                  <c:v>8.068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7228,11 +7224,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-428814752"/>
-        <c:axId val="-428812000"/>
+        <c:axId val="-1461097088"/>
+        <c:axId val="-1461094336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-428814752"/>
+        <c:axId val="-1461097088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7275,7 +7271,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-428812000"/>
+        <c:crossAx val="-1461094336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7283,7 +7279,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-428812000"/>
+        <c:axId val="-1461094336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7333,7 +7329,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-428814752"/>
+        <c:crossAx val="-1461097088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7454,6 +7450,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7646,13 +7643,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.408</c:v>
+                  <c:v>0.415</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.457</c:v>
+                  <c:v>0.436</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.478</c:v>
@@ -7765,11 +7762,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-538998352"/>
-        <c:axId val="-538995600"/>
+        <c:axId val="-1364871488"/>
+        <c:axId val="-1364868736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-538998352"/>
+        <c:axId val="-1364871488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7812,7 +7809,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-538995600"/>
+        <c:crossAx val="-1364868736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7820,7 +7817,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-538995600"/>
+        <c:axId val="-1364868736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7871,7 +7868,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-538998352"/>
+        <c:crossAx val="-1364871488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7885,6 +7882,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7992,6 +7990,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8184,25 +8183,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.131</c:v>
+                  <c:v>0.312</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.161</c:v>
+                  <c:v>0.337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.317</c:v>
+                  <c:v>0.456</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.733</c:v>
+                  <c:v>0.798</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.269</c:v>
+                  <c:v>2.107</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.167</c:v>
+                  <c:v>4.339</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.875</c:v>
+                  <c:v>6.824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8303,11 +8302,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-427799136"/>
-        <c:axId val="-427796384"/>
+        <c:axId val="-1361347824"/>
+        <c:axId val="-1361345072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-427799136"/>
+        <c:axId val="-1361347824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8350,7 +8349,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-427796384"/>
+        <c:crossAx val="-1361345072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8358,7 +8357,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-427796384"/>
+        <c:axId val="-1361345072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8408,7 +8407,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-427799136"/>
+        <c:crossAx val="-1361347824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8422,6 +8421,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8840,11 +8840,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-540221280"/>
-        <c:axId val="-540218800"/>
+        <c:axId val="-1361302176"/>
+        <c:axId val="-1361299424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-540221280"/>
+        <c:axId val="-1361302176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8887,7 +8887,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-540218800"/>
+        <c:crossAx val="-1361299424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8895,7 +8895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-540218800"/>
+        <c:axId val="-1361299424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8945,7 +8945,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-540221280"/>
+        <c:crossAx val="-1361302176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9377,11 +9377,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-540182960"/>
-        <c:axId val="-540180208"/>
+        <c:axId val="-1361268256"/>
+        <c:axId val="-1361265504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-540182960"/>
+        <c:axId val="-1361268256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9424,7 +9424,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-540180208"/>
+        <c:crossAx val="-1361265504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9432,7 +9432,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-540180208"/>
+        <c:axId val="-1361265504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9482,7 +9482,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-540182960"/>
+        <c:crossAx val="-1361268256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9914,11 +9914,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-540141584"/>
-        <c:axId val="-540138832"/>
+        <c:axId val="-1361230240"/>
+        <c:axId val="-1361227488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-540141584"/>
+        <c:axId val="-1361230240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9961,7 +9961,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-540138832"/>
+        <c:crossAx val="-1361227488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9969,7 +9969,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-540138832"/>
+        <c:axId val="-1361227488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10020,7 +10020,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-540141584"/>
+        <c:crossAx val="-1361230240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10452,11 +10452,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-428800496"/>
-        <c:axId val="-428798288"/>
+        <c:axId val="-1361196320"/>
+        <c:axId val="-1361193568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-428800496"/>
+        <c:axId val="-1361196320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10499,7 +10499,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-428798288"/>
+        <c:crossAx val="-1361193568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10507,7 +10507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-428798288"/>
+        <c:axId val="-1361193568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10557,7 +10557,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-428800496"/>
+        <c:crossAx val="-1361196320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10989,11 +10989,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-428752224"/>
-        <c:axId val="-428749472"/>
+        <c:axId val="-1361157648"/>
+        <c:axId val="-1361154896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-428752224"/>
+        <c:axId val="-1361157648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11036,7 +11036,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-428749472"/>
+        <c:crossAx val="-1361154896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11044,7 +11044,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-428749472"/>
+        <c:axId val="-1361154896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11094,7 +11094,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-428752224"/>
+        <c:crossAx val="-1361157648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11526,11 +11526,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-427755040"/>
-        <c:axId val="-427752288"/>
+        <c:axId val="-1361123728"/>
+        <c:axId val="-1361120976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-427755040"/>
+        <c:axId val="-1361123728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11573,7 +11573,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-427752288"/>
+        <c:crossAx val="-1361120976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11581,7 +11581,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-427752288"/>
+        <c:axId val="-1361120976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11631,7 +11631,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-427755040"/>
+        <c:crossAx val="-1361123728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11925,11 +11925,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-539228896"/>
-        <c:axId val="-539226144"/>
+        <c:axId val="-1361767024"/>
+        <c:axId val="-1361764272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-539228896"/>
+        <c:axId val="-1361767024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11972,7 +11972,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-539226144"/>
+        <c:crossAx val="-1361764272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11980,7 +11980,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-539226144"/>
+        <c:axId val="-1361764272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12031,7 +12031,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-539228896"/>
+        <c:crossAx val="-1361767024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12432,11 +12432,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-427713952"/>
-        <c:axId val="-427711200"/>
+        <c:axId val="-1361085440"/>
+        <c:axId val="-1361082688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-427713952"/>
+        <c:axId val="-1361085440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12479,7 +12479,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-427711200"/>
+        <c:crossAx val="-1361082688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12487,7 +12487,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-427711200"/>
+        <c:axId val="-1361082688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12537,7 +12537,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-427713952"/>
+        <c:crossAx val="-1361085440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12969,11 +12969,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-427679808"/>
-        <c:axId val="-427677056"/>
+        <c:axId val="-1350549152"/>
+        <c:axId val="-1350546400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-427679808"/>
+        <c:axId val="-1350549152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13016,7 +13016,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-427677056"/>
+        <c:crossAx val="-1350546400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13024,7 +13024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-427677056"/>
+        <c:axId val="-1350546400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13074,7 +13074,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-427679808"/>
+        <c:crossAx val="-1350549152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13485,11 +13485,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-427640928"/>
-        <c:axId val="-427638176"/>
+        <c:axId val="-1350510848"/>
+        <c:axId val="-1350508096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-427640928"/>
+        <c:axId val="-1350510848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13532,7 +13532,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-427638176"/>
+        <c:crossAx val="-1350508096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13540,7 +13540,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-427638176"/>
+        <c:axId val="-1350508096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13590,7 +13590,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-427640928"/>
+        <c:crossAx val="-1350510848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14001,11 +14001,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-427607056"/>
-        <c:axId val="-427604304"/>
+        <c:axId val="-1350476928"/>
+        <c:axId val="-1350474176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-427607056"/>
+        <c:axId val="-1350476928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14048,7 +14048,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-427604304"/>
+        <c:crossAx val="-1350474176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14056,7 +14056,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-427604304"/>
+        <c:axId val="-1350474176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14106,7 +14106,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-427607056"/>
+        <c:crossAx val="-1350476928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14484,11 +14484,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-428735264"/>
-        <c:axId val="-428732512"/>
+        <c:axId val="-1350437712"/>
+        <c:axId val="-1350434960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-428735264"/>
+        <c:axId val="-1350437712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14531,7 +14531,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-428732512"/>
+        <c:crossAx val="-1350434960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14539,7 +14539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-428732512"/>
+        <c:axId val="-1350434960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14589,7 +14589,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-428735264"/>
+        <c:crossAx val="-1350437712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14967,11 +14967,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-428696416"/>
-        <c:axId val="-428693664"/>
+        <c:axId val="-1350403840"/>
+        <c:axId val="-1350401088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-428696416"/>
+        <c:axId val="-1350403840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15014,7 +15014,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-428693664"/>
+        <c:crossAx val="-1350401088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15022,7 +15022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-428693664"/>
+        <c:axId val="-1350401088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15073,7 +15073,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-428696416"/>
+        <c:crossAx val="-1350403840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15457,11 +15457,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-428654912"/>
-        <c:axId val="-428652160"/>
+        <c:axId val="-1350365824"/>
+        <c:axId val="-1350363072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-428654912"/>
+        <c:axId val="-1350365824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15504,7 +15504,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-428652160"/>
+        <c:crossAx val="-1350363072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15512,7 +15512,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-428652160"/>
+        <c:axId val="-1350363072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -15563,7 +15563,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-428654912"/>
+        <c:crossAx val="-1350365824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15892,11 +15892,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-428620304"/>
-        <c:axId val="-428617552"/>
+        <c:axId val="-1350331040"/>
+        <c:axId val="-1350328288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-428620304"/>
+        <c:axId val="-1350331040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15939,7 +15939,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-428617552"/>
+        <c:crossAx val="-1350328288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15947,7 +15947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-428617552"/>
+        <c:axId val="-1350328288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15998,7 +15998,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-428620304"/>
+        <c:crossAx val="-1350331040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16299,11 +16299,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-540098960"/>
-        <c:axId val="-540096208"/>
+        <c:axId val="-1350299504"/>
+        <c:axId val="-1350296752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-540098960"/>
+        <c:axId val="-1350299504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16346,7 +16346,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-540096208"/>
+        <c:crossAx val="-1350296752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16354,7 +16354,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-540096208"/>
+        <c:axId val="-1350296752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16404,7 +16404,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-540098960"/>
+        <c:crossAx val="-1350299504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16675,11 +16675,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-540072464"/>
-        <c:axId val="-540069712"/>
+        <c:axId val="-1350272880"/>
+        <c:axId val="-1350270128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-540072464"/>
+        <c:axId val="-1350272880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16722,7 +16722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-540069712"/>
+        <c:crossAx val="-1350270128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16730,7 +16730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-540069712"/>
+        <c:axId val="-1350270128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16780,7 +16780,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-540072464"/>
+        <c:crossAx val="-1350272880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17038,11 +17038,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-539203568"/>
-        <c:axId val="-539200816"/>
+        <c:axId val="-1361741616"/>
+        <c:axId val="-1361738864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-539203568"/>
+        <c:axId val="-1361741616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17085,7 +17085,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-539200816"/>
+        <c:crossAx val="-1361738864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17093,7 +17093,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-539200816"/>
+        <c:axId val="-1361738864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17144,7 +17144,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-539203568"/>
+        <c:crossAx val="-1361741616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18095,11 +18095,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-428602560"/>
-        <c:axId val="-428599808"/>
+        <c:axId val="-1350228736"/>
+        <c:axId val="-1350225984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-428602560"/>
+        <c:axId val="-1350228736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18156,7 +18156,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-428599808"/>
+        <c:crossAx val="-1350225984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18164,7 +18164,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-428599808"/>
+        <c:axId val="-1350225984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18220,7 +18220,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-428602560"/>
+        <c:crossAx val="-1350228736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19172,11 +19172,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-428577776"/>
-        <c:axId val="-428575024"/>
+        <c:axId val="-1350188688"/>
+        <c:axId val="-1350185936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-428577776"/>
+        <c:axId val="-1350188688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19233,7 +19233,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-428575024"/>
+        <c:crossAx val="-1350185936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19241,7 +19241,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-428575024"/>
+        <c:axId val="-1350185936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19297,7 +19297,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-428577776"/>
+        <c:crossAx val="-1350188688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20249,11 +20249,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-419450112"/>
-        <c:axId val="-419447360"/>
+        <c:axId val="-1350148336"/>
+        <c:axId val="-1350145584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-419450112"/>
+        <c:axId val="-1350148336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20310,7 +20310,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-419447360"/>
+        <c:crossAx val="-1350145584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20318,7 +20318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-419447360"/>
+        <c:axId val="-1350145584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20374,7 +20374,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-419450112"/>
+        <c:crossAx val="-1350148336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21326,11 +21326,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-333346000"/>
-        <c:axId val="-333343248"/>
+        <c:axId val="-1350107984"/>
+        <c:axId val="-1350105232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-333346000"/>
+        <c:axId val="-1350107984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21387,7 +21387,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-333343248"/>
+        <c:crossAx val="-1350105232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21395,7 +21395,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-333343248"/>
+        <c:axId val="-1350105232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21451,7 +21451,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-333346000"/>
+        <c:crossAx val="-1350107984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21739,118 +21739,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>0.67</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.67</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.67</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.47</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.27</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.92</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.92</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.72</c:v>
+                  <c:v>2.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.72</c:v>
+                  <c:v>2.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.72</c:v>
+                  <c:v>2.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.72</c:v>
+                  <c:v>2.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.47</c:v>
+                  <c:v>2.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.09</c:v>
+                  <c:v>2.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.09</c:v>
+                  <c:v>2.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.09</c:v>
+                  <c:v>2.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.09</c:v>
+                  <c:v>2.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.82</c:v>
+                  <c:v>2.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.82</c:v>
+                  <c:v>2.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.82</c:v>
+                  <c:v>2.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.55</c:v>
+                  <c:v>3.66</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.35</c:v>
+                  <c:v>5.26</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.35</c:v>
+                  <c:v>3.26</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.95</c:v>
+                  <c:v>3.26</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.57</c:v>
+                  <c:v>3.26</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.57</c:v>
+                  <c:v>3.26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.37</c:v>
+                  <c:v>3.86</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.04</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.769999999999999</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.769999999999999</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.769999999999999</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.769999999999999</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.44</c:v>
+                  <c:v>7.34</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.44</c:v>
+                  <c:v>5.34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.44</c:v>
+                  <c:v>5.34</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.44</c:v>
+                  <c:v>5.34</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.44</c:v>
+                  <c:v>5.34</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.44</c:v>
+                  <c:v>3.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22013,118 +22013,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>-1.0</c:v>
+                  <c:v>-2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.0</c:v>
+                  <c:v>-2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.38</c:v>
+                  <c:v>-0.76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.38</c:v>
+                  <c:v>-0.76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37</c:v>
+                  <c:v>-0.76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.12</c:v>
+                  <c:v>-0.76</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.79</c:v>
+                  <c:v>-0.76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.79</c:v>
+                  <c:v>-0.76</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.79</c:v>
+                  <c:v>-0.76</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.54</c:v>
+                  <c:v>-2.01</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.54</c:v>
+                  <c:v>-2.01</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.29</c:v>
+                  <c:v>-0.51</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.91</c:v>
+                  <c:v>-2.51</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.53</c:v>
+                  <c:v>-2.51</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.53</c:v>
+                  <c:v>-2.51</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.2</c:v>
+                  <c:v>-2.51</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.82</c:v>
+                  <c:v>-2.51</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.82</c:v>
+                  <c:v>-2.51</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.82</c:v>
+                  <c:v>-2.51</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.62</c:v>
+                  <c:v>-2.51</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.42</c:v>
+                  <c:v>-0.91</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.42</c:v>
+                  <c:v>-0.91</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.42</c:v>
+                  <c:v>-0.91</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.42</c:v>
+                  <c:v>-0.91</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.04</c:v>
+                  <c:v>-0.91</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.04</c:v>
+                  <c:v>-0.91</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.84</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.84</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.46</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.46</c:v>
+                  <c:v>-1.31</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.46</c:v>
+                  <c:v>-4.31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.46</c:v>
+                  <c:v>-4.31</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.19</c:v>
+                  <c:v>-6.31</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.19</c:v>
+                  <c:v>-6.31</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.19</c:v>
+                  <c:v>-8.31</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.86</c:v>
+                  <c:v>-8.31</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.86</c:v>
+                  <c:v>-8.31</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.86</c:v>
+                  <c:v>-8.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22403,11 +22403,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-317316112"/>
-        <c:axId val="-317313792"/>
+        <c:axId val="-1461062400"/>
+        <c:axId val="-1461059648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-317316112"/>
+        <c:axId val="-1461062400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22464,7 +22464,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-317313792"/>
+        <c:crossAx val="-1461059648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22472,7 +22472,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-317313792"/>
+        <c:axId val="-1461059648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22528,7 +22528,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-317316112"/>
+        <c:crossAx val="-1461062400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23480,11 +23480,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-786277776"/>
-        <c:axId val="-786275568"/>
+        <c:axId val="-1461015328"/>
+        <c:axId val="-1461012576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-786277776"/>
+        <c:axId val="-1461015328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23541,7 +23541,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-786275568"/>
+        <c:crossAx val="-1461012576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -23549,7 +23549,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-786275568"/>
+        <c:axId val="-1461012576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23605,7 +23605,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-786277776"/>
+        <c:crossAx val="-1461015328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23900,11 +23900,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="-539174912"/>
-        <c:axId val="-539172160"/>
+        <c:axId val="-1361712944"/>
+        <c:axId val="-1361710192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-539174912"/>
+        <c:axId val="-1361712944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23947,7 +23947,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-539172160"/>
+        <c:crossAx val="-1361710192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -23955,7 +23955,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-539172160"/>
+        <c:axId val="-1361710192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24006,7 +24006,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-539174912"/>
+        <c:crossAx val="-1361712944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24269,11 +24269,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-538171904"/>
-        <c:axId val="-538169584"/>
+        <c:axId val="-1361683856"/>
+        <c:axId val="-1361681104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-538171904"/>
+        <c:axId val="-1361683856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24316,7 +24316,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-538169584"/>
+        <c:crossAx val="-1361681104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24324,7 +24324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-538169584"/>
+        <c:axId val="-1361681104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24375,7 +24375,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-538171904"/>
+        <c:crossAx val="-1361683856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24686,11 +24686,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-538129648"/>
-        <c:axId val="-538126384"/>
+        <c:axId val="-1361644736"/>
+        <c:axId val="-1361641472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-538129648"/>
+        <c:axId val="-1361644736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24700,7 +24700,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-538126384"/>
+        <c:crossAx val="-1361641472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24708,7 +24708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-538126384"/>
+        <c:axId val="-1361641472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.6"/>
@@ -24765,7 +24765,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-538129648"/>
+        <c:crossAx val="-1361644736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -25107,11 +25107,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-539129824"/>
-        <c:axId val="-539126560"/>
+        <c:axId val="-1361608832"/>
+        <c:axId val="-1361605568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-539129824"/>
+        <c:axId val="-1361608832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25121,7 +25121,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-539126560"/>
+        <c:crossAx val="-1361605568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -25129,7 +25129,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-539126560"/>
+        <c:axId val="-1361605568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -25186,7 +25186,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-539129824"/>
+        <c:crossAx val="-1361608832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -25552,11 +25552,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-539094432"/>
-        <c:axId val="-539091168"/>
+        <c:axId val="-1361576352"/>
+        <c:axId val="-1361573088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-539094432"/>
+        <c:axId val="-1361576352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25566,7 +25566,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-539091168"/>
+        <c:crossAx val="-1361573088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -25574,7 +25574,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-539091168"/>
+        <c:axId val="-1361573088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.6"/>
@@ -25630,7 +25630,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-539094432"/>
+        <c:crossAx val="-1361576352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -63876,8 +63876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -63896,7 +63896,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -63913,7 +63913,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -63922,7 +63922,7 @@
         <v>58</v>
       </c>
       <c r="F3">
-        <v>27.44</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -63930,7 +63930,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -63941,7 +63941,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -63952,7 +63952,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.47</v>
+        <v>0.6</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -63963,7 +63963,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.27</v>
+        <v>0.6</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -63974,7 +63974,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.92</v>
+        <v>0.6</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -63985,7 +63985,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.92</v>
+        <v>0.6</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -63996,7 +63996,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.72</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -64007,7 +64007,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.72</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -64018,7 +64018,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.72</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -64029,7 +64029,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.72</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -64040,7 +64040,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3.47</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -64051,7 +64051,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>4.09</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -64062,7 +64062,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>4.09</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -64073,7 +64073,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>3.09</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -64084,7 +64084,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2.09</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -64095,7 +64095,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2.82</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -64106,7 +64106,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2.82</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -64117,7 +64117,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1.82</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -64128,7 +64128,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2.5499999999999998</v>
+        <v>3.66</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -64139,7 +64139,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>3.35</v>
+        <v>5.26</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -64150,7 +64150,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2.35</v>
+        <v>3.26</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -64161,7 +64161,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2.95</v>
+        <v>3.26</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -64172,7 +64172,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>3.57</v>
+        <v>3.26</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -64183,7 +64183,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>3.57</v>
+        <v>3.26</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -64194,7 +64194,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>4.37</v>
+        <v>3.86</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -64205,7 +64205,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>5.04</v>
+        <v>6</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -64216,7 +64216,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>5.77</v>
+        <v>6</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -64227,7 +64227,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>5.77</v>
+        <v>6</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -64238,7 +64238,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>5.77</v>
+        <v>6</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -64249,7 +64249,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>5.77</v>
+        <v>6</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -64260,7 +64260,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>6.44</v>
+        <v>7.34</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -64271,7 +64271,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>5.44</v>
+        <v>5.34</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -64282,7 +64282,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>4.4400000000000004</v>
+        <v>5.34</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -64293,7 +64293,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>4.4400000000000004</v>
+        <v>5.34</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -64304,7 +64304,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>4.4400000000000004</v>
+        <v>5.34</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -64315,7 +64315,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>3.44</v>
+        <v>3.34</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -64331,13 +64331,13 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E41" t="s">
         <v>57</v>
       </c>
       <c r="F41" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
@@ -64345,13 +64345,13 @@
         <v>2</v>
       </c>
       <c r="B42">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F42" s="6">
-        <v>28.86</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
@@ -64359,7 +64359,7 @@
         <v>3</v>
       </c>
       <c r="B43">
-        <v>-0.38</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
@@ -64367,7 +64367,7 @@
         <v>4</v>
       </c>
       <c r="B44">
-        <v>-0.38</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
@@ -64375,7 +64375,7 @@
         <v>5</v>
       </c>
       <c r="B45">
-        <v>0.37</v>
+        <v>-0.76</v>
       </c>
       <c r="W45" t="s">
         <v>59</v>
@@ -64386,7 +64386,7 @@
         <v>6</v>
       </c>
       <c r="B46">
-        <v>1.1200000000000001</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
@@ -64394,7 +64394,7 @@
         <v>7</v>
       </c>
       <c r="B47">
-        <v>1.79</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
@@ -64402,7 +64402,7 @@
         <v>8</v>
       </c>
       <c r="B48">
-        <v>1.79</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -64410,7 +64410,7 @@
         <v>9</v>
       </c>
       <c r="B49">
-        <v>1.79</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -64418,7 +64418,7 @@
         <v>10</v>
       </c>
       <c r="B50">
-        <v>2.54</v>
+        <v>-2.0099999999999998</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -64426,7 +64426,7 @@
         <v>11</v>
       </c>
       <c r="B51">
-        <v>2.54</v>
+        <v>-2.0099999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -64434,7 +64434,7 @@
         <v>12</v>
       </c>
       <c r="B52">
-        <v>3.29</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -64442,7 +64442,7 @@
         <v>13</v>
       </c>
       <c r="B53">
-        <v>3.91</v>
+        <v>-2.5099999999999998</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -64450,7 +64450,7 @@
         <v>14</v>
       </c>
       <c r="B54">
-        <v>4.53</v>
+        <v>-2.5099999999999998</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -64458,7 +64458,7 @@
         <v>15</v>
       </c>
       <c r="B55">
-        <v>4.53</v>
+        <v>-2.5099999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -64466,7 +64466,7 @@
         <v>16</v>
       </c>
       <c r="B56">
-        <v>5.2</v>
+        <v>-2.5099999999999998</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -64474,7 +64474,7 @@
         <v>17</v>
       </c>
       <c r="B57">
-        <v>5.82</v>
+        <v>-2.5099999999999998</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -64482,7 +64482,7 @@
         <v>18</v>
       </c>
       <c r="B58">
-        <v>5.82</v>
+        <v>-2.5099999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -64490,7 +64490,7 @@
         <v>19</v>
       </c>
       <c r="B59">
-        <v>4.82</v>
+        <v>-2.5099999999999998</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -64498,7 +64498,7 @@
         <v>20</v>
       </c>
       <c r="B60">
-        <v>5.62</v>
+        <v>-2.5099999999999998</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -64506,7 +64506,7 @@
         <v>21</v>
       </c>
       <c r="B61">
-        <v>6.42</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -64514,7 +64514,7 @@
         <v>22</v>
       </c>
       <c r="B62">
-        <v>6.42</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -64522,7 +64522,7 @@
         <v>23</v>
       </c>
       <c r="B63">
-        <v>6.42</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -64530,7 +64530,7 @@
         <v>24</v>
       </c>
       <c r="B64">
-        <v>5.42</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -64538,7 +64538,7 @@
         <v>25</v>
       </c>
       <c r="B65">
-        <v>6.04</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -64546,7 +64546,7 @@
         <v>26</v>
       </c>
       <c r="B66">
-        <v>6.04</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -64554,7 +64554,7 @@
         <v>27</v>
       </c>
       <c r="B67">
-        <v>6.84</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -64562,7 +64562,7 @@
         <v>28</v>
       </c>
       <c r="B68">
-        <v>6.84</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -64570,7 +64570,7 @@
         <v>29</v>
       </c>
       <c r="B69">
-        <v>7.46</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -64578,7 +64578,7 @@
         <v>30</v>
       </c>
       <c r="B70">
-        <v>6.46</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -64586,7 +64586,7 @@
         <v>31</v>
       </c>
       <c r="B71">
-        <v>5.46</v>
+        <v>-4.3099999999999996</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -64594,7 +64594,7 @@
         <v>32</v>
       </c>
       <c r="B72">
-        <v>5.46</v>
+        <v>-4.3099999999999996</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -64602,7 +64602,7 @@
         <v>33</v>
       </c>
       <c r="B73">
-        <v>6.19</v>
+        <v>-6.31</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -64610,7 +64610,7 @@
         <v>34</v>
       </c>
       <c r="B74">
-        <v>6.19</v>
+        <v>-6.31</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -64618,7 +64618,7 @@
         <v>35</v>
       </c>
       <c r="B75">
-        <v>5.19</v>
+        <v>-8.31</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -64626,7 +64626,7 @@
         <v>36</v>
       </c>
       <c r="B76">
-        <v>5.86</v>
+        <v>-8.31</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -64634,7 +64634,7 @@
         <v>37</v>
       </c>
       <c r="B77">
-        <v>5.86</v>
+        <v>-8.31</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -64642,7 +64642,7 @@
         <v>38</v>
       </c>
       <c r="B78">
-        <v>5.86</v>
+        <v>-8.31</v>
       </c>
     </row>
   </sheetData>
@@ -64656,7 +64656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
@@ -66299,7 +66299,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -66519,19 +66519,19 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="D11">
         <v>733</v>
       </c>
       <c r="E11">
-        <v>119</v>
+        <v>323</v>
       </c>
       <c r="F11">
-        <v>0.40600000000000003</v>
+        <v>0.438</v>
       </c>
       <c r="G11">
-        <v>0.16300000000000001</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -66542,19 +66542,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="D12">
         <v>728</v>
       </c>
       <c r="E12">
-        <v>107</v>
+        <v>330</v>
       </c>
       <c r="F12">
-        <v>0.377</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="G12">
-        <v>0.14699999999999999</v>
+        <v>0.45400000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -66565,19 +66565,19 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="D13">
         <v>704</v>
       </c>
       <c r="E13">
-        <v>194</v>
+        <v>430</v>
       </c>
       <c r="F13">
-        <v>0.39100000000000001</v>
+        <v>0.437</v>
       </c>
       <c r="G13">
-        <v>0.27600000000000002</v>
+        <v>0.61099999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -66588,19 +66588,19 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>227</v>
+        <v>302</v>
       </c>
       <c r="D14">
         <v>657</v>
       </c>
       <c r="E14">
-        <v>485</v>
+        <v>713</v>
       </c>
       <c r="F14">
-        <v>0.34599999999999997</v>
+        <v>0.46</v>
       </c>
       <c r="G14">
-        <v>0.73899999999999999</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -66611,19 +66611,19 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D15">
         <v>557</v>
       </c>
       <c r="E15">
-        <v>1466</v>
+        <v>1492</v>
       </c>
       <c r="F15">
-        <v>0.434</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="G15">
-        <v>2.633</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -66634,19 +66634,19 @@
         <v>25</v>
       </c>
       <c r="C16">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="D16">
         <v>466</v>
       </c>
       <c r="E16">
-        <v>2308</v>
+        <v>2645</v>
       </c>
       <c r="F16">
-        <v>0.42899999999999999</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="G16">
-        <v>4.9550000000000001</v>
+        <v>5.6779999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -66657,19 +66657,19 @@
         <v>25</v>
       </c>
       <c r="C17">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="D17">
         <v>428</v>
       </c>
       <c r="E17">
-        <v>3661</v>
+        <v>3725</v>
       </c>
       <c r="F17">
-        <v>0.42799999999999999</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="G17">
-        <v>8.5540000000000003</v>
+        <v>8.7050000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -66889,7 +66889,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -67111,19 +67111,19 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D11">
         <v>733</v>
       </c>
       <c r="E11">
-        <v>118</v>
+        <v>330</v>
       </c>
       <c r="F11">
-        <v>0.42499999999999999</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="G11">
-        <v>0.161</v>
+        <v>0.45100000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -67134,19 +67134,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D12">
         <v>728</v>
       </c>
       <c r="E12">
-        <v>127</v>
+        <v>353</v>
       </c>
       <c r="F12">
-        <v>0.42199999999999999</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G12">
-        <v>0.17499999999999999</v>
+        <v>0.48499999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -67157,19 +67157,19 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="D13">
         <v>704</v>
       </c>
       <c r="E13">
-        <v>244</v>
+        <v>467</v>
       </c>
       <c r="F13">
-        <v>0.42</v>
+        <v>0.441</v>
       </c>
       <c r="G13">
-        <v>0.34799999999999998</v>
+        <v>0.66400000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -67180,19 +67180,19 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D14">
         <v>657</v>
       </c>
       <c r="E14">
-        <v>2887</v>
+        <v>750</v>
       </c>
       <c r="F14">
-        <v>0.46800000000000003</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="G14">
-        <v>0.86099999999999999</v>
+        <v>1.1419999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -67209,13 +67209,13 @@
         <v>557</v>
       </c>
       <c r="E15">
-        <v>1377</v>
+        <v>1576</v>
       </c>
       <c r="F15">
         <v>0.48099999999999998</v>
       </c>
       <c r="G15">
-        <v>2.4729999999999999</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -67232,13 +67232,13 @@
         <v>466</v>
       </c>
       <c r="E16">
-        <v>2463</v>
+        <v>2744</v>
       </c>
       <c r="F16">
         <v>0.48</v>
       </c>
       <c r="G16">
-        <v>5.2859999999999996</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -67255,13 +67255,13 @@
         <v>428</v>
       </c>
       <c r="E17">
-        <v>3555</v>
+        <v>3772</v>
       </c>
       <c r="F17">
         <v>0.48099999999999998</v>
       </c>
       <c r="G17">
-        <v>8.3079999999999998</v>
+        <v>8.8149999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -67478,7 +67478,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="G14" sqref="A14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -67699,19 +67699,19 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="D11">
         <v>733</v>
       </c>
       <c r="E11">
-        <v>101</v>
+        <v>284</v>
       </c>
       <c r="F11">
-        <v>0.38200000000000001</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="G11">
-        <v>0.13900000000000001</v>
+        <v>0.38800000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -67722,19 +67722,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D12">
         <v>728</v>
       </c>
       <c r="E12">
-        <v>124</v>
+        <v>291</v>
       </c>
       <c r="F12">
-        <v>0.39300000000000002</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="G12">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -67745,19 +67745,19 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="D13">
         <v>704</v>
       </c>
       <c r="E13">
-        <v>246</v>
+        <v>426</v>
       </c>
       <c r="F13">
-        <v>0.40799999999999997</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="G13">
-        <v>0.35</v>
+        <v>0.60599999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -67768,19 +67768,19 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="D14">
         <v>657</v>
       </c>
       <c r="E14">
-        <v>543</v>
+        <v>889</v>
       </c>
       <c r="F14">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
       <c r="G14">
-        <v>0.82799999999999996</v>
+        <v>1.3540000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -67791,19 +67791,19 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="D15">
         <v>557</v>
       </c>
       <c r="E15">
-        <v>1529</v>
+        <v>1661</v>
       </c>
       <c r="F15">
-        <v>0.432</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="G15">
-        <v>2.746</v>
+        <v>2.9830000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -67814,19 +67814,19 @@
         <v>25</v>
       </c>
       <c r="C16">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="D16">
         <v>466</v>
       </c>
       <c r="E16">
-        <v>2605</v>
+        <v>2576</v>
       </c>
       <c r="F16">
-        <v>0.43</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="G16">
-        <v>5.5919999999999996</v>
+        <v>5.5289999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -67837,19 +67837,19 @@
         <v>25</v>
       </c>
       <c r="C17">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="D17">
         <v>428</v>
       </c>
       <c r="E17">
-        <v>3714</v>
+        <v>3453</v>
       </c>
       <c r="F17">
-        <v>0.42499999999999999</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="G17">
-        <v>8.68</v>
+        <v>8.0679999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -68053,7 +68053,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="A17" sqref="A17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -68275,19 +68275,19 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D11">
         <v>733</v>
       </c>
       <c r="E11">
-        <v>96</v>
+        <v>228</v>
       </c>
       <c r="F11">
-        <v>0.40799999999999997</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="G11">
-        <v>0.13100000000000001</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -68298,19 +68298,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D12">
         <v>728</v>
       </c>
       <c r="E12">
-        <v>117</v>
+        <v>245</v>
       </c>
       <c r="F12">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="G12">
-        <v>0.161</v>
+        <v>0.33700000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -68321,19 +68321,19 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="D13">
         <v>704</v>
       </c>
       <c r="E13">
-        <v>222</v>
+        <v>320</v>
       </c>
       <c r="F13">
-        <v>0.45700000000000002</v>
+        <v>0.436</v>
       </c>
       <c r="G13">
-        <v>0.317</v>
+        <v>0.45600000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -68350,13 +68350,13 @@
         <v>657</v>
       </c>
       <c r="E14">
-        <v>481</v>
+        <v>524</v>
       </c>
       <c r="F14">
         <v>0.47799999999999998</v>
       </c>
       <c r="G14">
-        <v>0.73299999999999998</v>
+        <v>0.79800000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -68373,13 +68373,13 @@
         <v>557</v>
       </c>
       <c r="E15">
-        <v>1263</v>
+        <v>1173</v>
       </c>
       <c r="F15">
         <v>0.48499999999999999</v>
       </c>
       <c r="G15">
-        <v>2.2690000000000001</v>
+        <v>2.1070000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -68396,13 +68396,13 @@
         <v>466</v>
       </c>
       <c r="E16">
-        <v>2407</v>
+        <v>2022</v>
       </c>
       <c r="F16">
         <v>0.48199999999999998</v>
       </c>
       <c r="G16">
-        <v>5.1669999999999998</v>
+        <v>4.3390000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -68419,13 +68419,13 @@
         <v>428</v>
       </c>
       <c r="E17">
-        <v>3798</v>
+        <v>2920</v>
       </c>
       <c r="F17">
         <v>0.48099999999999998</v>
       </c>
       <c r="G17">
-        <v>8.875</v>
+        <v>6.8239999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
